--- a/rtss-mexico/src/main/resources/agriculture/FAOSTAT/Production_Crops_Livestock_E_All_Data/MexOnly - Production_Crops_Livestock_E_All_Data_NOFLAG.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/FAOSTAT/Production_Crops_Livestock_E_All_Data/MexOnly - Production_Crops_Livestock_E_All_Data_NOFLAG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAOSTAT\Production_Crops_Livestock_E_All_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\FAOSTAT\Production_Crops_Livestock_E_All_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE7B415-0B76-470C-8A1A-63E55890949A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99101960-3301-427A-94FA-0BD394FC594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="16905"/>
+    <workbookView xWindow="59430" yWindow="1830" windowWidth="43200" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MexOnly - Production_Crops_Live" sheetId="1" r:id="rId1"/>
@@ -1555,7 +1555,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2033,8 +2033,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2389,234 +2390,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" sqref="A1:BS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>138</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>13601</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>138</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>459.7</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>138</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>6251.88</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>138</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>138</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>138</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>47.79</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>138</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>8848</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>138</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>15612.4</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>138</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>138139.9</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>138</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>54959</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>138</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>14880.3</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>138</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>817805.96</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>138</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>138</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>5623.4</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>138</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>1082.51</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>138</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>138</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>13253.5</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>138</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>3408.8</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>138</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>138</v>
       </c>
@@ -6736,7 +6737,7 @@
         <v>8573.2999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>138</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>304822.56</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>138</v>
       </c>
@@ -7166,7 +7167,7 @@
         <v>3290520</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>138</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>234821</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>138</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>10772.4</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>138</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>2529581.41</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>138</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>22574</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>138</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>84892</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>138</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>30634.2</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>138</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>2600601.48</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>138</v>
       </c>
@@ -8790,7 +8791,7 @@
         <v>323159</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>138</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>3001.4</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>138</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>969912.9</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>138</v>
       </c>
@@ -9435,7 +9436,7 @@
         <v>1453213</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>138</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>689.8</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>138</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>1002447.62</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>138</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>13469664</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>138</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>2319393</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>138</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>138</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>138</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>11432.3</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>138</v>
       </c>
@@ -11056,7 +11057,7 @@
         <v>67304.53</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>138</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>23617</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>138</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>1705.9</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>138</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v>40288.480000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>138</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>12907</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>138</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>6518.7</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>138</v>
       </c>
@@ -12274,7 +12275,7 @@
         <v>84138.44</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>138</v>
       </c>
@@ -12486,7 +12487,7 @@
         <v>24541.21</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>138</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>4306.21</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>138</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>138</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>34033.4</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>138</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>245812.92</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>138</v>
       </c>
@@ -13411,7 +13412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>138</v>
       </c>
@@ -13626,7 +13627,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>138</v>
       </c>
@@ -13841,7 +13842,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>138</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>17886</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>138</v>
       </c>
@@ -14271,7 +14272,7 @@
         <v>32172.3</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>138</v>
       </c>
@@ -14486,7 +14487,7 @@
         <v>575438.73</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>138</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>11617</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>138</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>30034.3</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>138</v>
       </c>
@@ -15131,7 +15132,7 @@
         <v>348899.93</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>138</v>
       </c>
@@ -15346,7 +15347,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>138</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>2489.4</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>138</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>3602.62</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>138</v>
       </c>
@@ -15922,7 +15923,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>138</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>12967.7</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>138</v>
       </c>
@@ -16352,7 +16353,7 @@
         <v>26892.46</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>138</v>
       </c>
@@ -16567,7 +16568,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>138</v>
       </c>
@@ -16776,7 +16777,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>138</v>
       </c>
@@ -16991,7 +16992,7 @@
         <v>2633.19</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>138</v>
       </c>
@@ -17206,7 +17207,7 @@
         <v>36338366</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>138</v>
       </c>
@@ -17421,7 +17422,7 @@
         <v>84605.759999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>138</v>
       </c>
@@ -17636,7 +17637,7 @@
         <v>8666993</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>138</v>
       </c>
@@ -17851,7 +17852,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>138</v>
       </c>
@@ -18066,7 +18067,7 @@
         <v>18201.5</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>138</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>739393.77</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>138</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>138</v>
       </c>
@@ -18648,7 +18649,7 @@
         <v>1782.4</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>138</v>
       </c>
@@ -18863,7 +18864,7 @@
         <v>5738.49</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>138</v>
       </c>
@@ -19075,7 +19076,7 @@
         <v>17164.98</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>138</v>
       </c>
@@ -19287,7 +19288,7 @@
         <v>164392.64000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>138</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>138</v>
       </c>
@@ -19627,7 +19628,7 @@
         <v>3162.2</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>138</v>
       </c>
@@ -19842,7 +19843,7 @@
         <v>188.15</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>138</v>
       </c>
@@ -20057,7 +20058,7 @@
         <v>111672</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>138</v>
       </c>
@@ -20272,7 +20273,7 @@
         <v>1692.8</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>138</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>189036.82</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>138</v>
       </c>
@@ -20702,7 +20703,7 @@
         <v>611202</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>138</v>
       </c>
@@ -20917,7 +20918,7 @@
         <v>30784</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>138</v>
       </c>
@@ -21132,7 +21133,7 @@
         <v>1981.2</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>138</v>
       </c>
@@ -21347,7 +21348,7 @@
         <v>60987.42</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>138</v>
       </c>
@@ -21562,7 +21563,7 @@
         <v>156718</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>138</v>
       </c>
@@ -21777,7 +21778,7 @@
         <v>19865.3</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>138</v>
       </c>
@@ -21992,7 +21993,7 @@
         <v>3113244.27</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>138</v>
       </c>
@@ -22120,7 +22121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>138</v>
       </c>
@@ -22335,7 +22336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>138</v>
       </c>
@@ -22550,7 +22551,7 @@
         <v>52054</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>138</v>
       </c>
@@ -22765,7 +22766,7 @@
         <v>540.1</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>138</v>
       </c>
@@ -22980,7 +22981,7 @@
         <v>28114.83</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>138</v>
       </c>
@@ -23192,7 +23193,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>138</v>
       </c>
@@ -23407,7 +23408,7 @@
         <v>124803</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>138</v>
       </c>
@@ -23622,7 +23623,7 @@
         <v>8973</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>138</v>
       </c>
@@ -23837,7 +23838,7 @@
         <v>1119847.25</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>138</v>
       </c>
@@ -24052,7 +24053,7 @@
         <v>646804</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>138</v>
       </c>
@@ -24267,7 +24268,7 @@
         <v>280.89999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>138</v>
       </c>
@@ -24482,7 +24483,7 @@
         <v>181706.42</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>138</v>
       </c>
@@ -24694,7 +24695,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>138</v>
       </c>
@@ -24906,7 +24907,7 @@
         <v>395000</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>138</v>
       </c>
@@ -25118,7 +25119,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>138</v>
       </c>
@@ -25333,7 +25334,7 @@
         <v>19123</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>138</v>
       </c>
@@ -25548,7 +25549,7 @@
         <v>56381.9</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>138</v>
       </c>
@@ -25763,7 +25764,7 @@
         <v>1078210.46</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>138</v>
       </c>
@@ -25978,7 +25979,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>138</v>
       </c>
@@ -26193,7 +26194,7 @@
         <v>6668.1</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>138</v>
       </c>
@@ -26408,7 +26409,7 @@
         <v>19720.18</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>138</v>
       </c>
@@ -26527,7 +26528,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>138</v>
       </c>
@@ -26742,7 +26743,7 @@
         <v>338423.03</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>138</v>
       </c>
@@ -26957,7 +26958,7 @@
         <v>8666993</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>138</v>
       </c>
@@ -27172,7 +27173,7 @@
         <v>6804.26</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>138</v>
       </c>
@@ -27387,7 +27388,7 @@
         <v>2277140</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>138</v>
       </c>
@@ -27602,7 +27603,7 @@
         <v>161771.04</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>138</v>
       </c>
@@ -27817,7 +27818,7 @@
         <v>20894799</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>138</v>
       </c>
@@ -28032,7 +28033,7 @@
         <v>11656.46</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>138</v>
       </c>
@@ -28247,7 +28248,7 @@
         <v>3265434</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>138</v>
       </c>
@@ -28462,7 +28463,7 @@
         <v>14577.8</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>138</v>
       </c>
@@ -28677,7 +28678,7 @@
         <v>560474.44999999995</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>138</v>
       </c>
@@ -28892,7 +28893,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>138</v>
       </c>
@@ -29107,7 +29108,7 @@
         <v>28172.1</v>
       </c>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>138</v>
       </c>
@@ -29322,7 +29323,7 @@
         <v>236670.56</v>
       </c>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>138</v>
       </c>
@@ -29537,7 +29538,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>138</v>
       </c>
@@ -29752,7 +29753,7 @@
         <v>57065.1</v>
       </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>138</v>
       </c>
@@ -29967,7 +29968,7 @@
         <v>108358.12</v>
       </c>
     </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>138</v>
       </c>
@@ -30182,7 +30183,7 @@
         <v>121328.28</v>
       </c>
     </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>138</v>
       </c>
@@ -30397,7 +30398,7 @@
         <v>20894799</v>
       </c>
     </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>138</v>
       </c>
@@ -30612,7 +30613,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>138</v>
       </c>
@@ -30827,7 +30828,7 @@
         <v>6540.4</v>
       </c>
     </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>138</v>
       </c>
@@ -31042,7 +31043,7 @@
         <v>11724.99</v>
       </c>
     </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>138</v>
       </c>
@@ -31257,7 +31258,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>138</v>
       </c>
@@ -31379,7 +31380,7 @@
         <v>9540.1</v>
       </c>
     </row>
-    <row r="141" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>138</v>
       </c>
@@ -31594,7 +31595,7 @@
         <v>4128.96</v>
       </c>
     </row>
-    <row r="142" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>138</v>
       </c>
@@ -31809,7 +31810,7 @@
         <v>1360.85</v>
       </c>
     </row>
-    <row r="143" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>138</v>
       </c>
@@ -32024,7 +32025,7 @@
         <v>2277140</v>
       </c>
     </row>
-    <row r="144" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>138</v>
       </c>
@@ -32239,7 +32240,7 @@
         <v>8817200</v>
       </c>
     </row>
-    <row r="145" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>138</v>
       </c>
@@ -32454,7 +32455,7 @@
         <v>31900</v>
       </c>
     </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>138</v>
       </c>
@@ -32669,7 +32670,7 @@
         <v>14349.7</v>
       </c>
     </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>138</v>
       </c>
@@ -32884,7 +32885,7 @@
         <v>457752.35</v>
       </c>
     </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>138</v>
       </c>
@@ -33099,7 +33100,7 @@
         <v>71804</v>
       </c>
     </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>138</v>
       </c>
@@ -33257,7 +33258,7 @@
         <v>15607.4</v>
       </c>
     </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>138</v>
       </c>
@@ -33472,7 +33473,7 @@
         <v>1120675.49</v>
       </c>
     </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>138</v>
       </c>
@@ -33687,7 +33688,7 @@
         <v>6843</v>
       </c>
     </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>138</v>
       </c>
@@ -33902,7 +33903,7 @@
         <v>13076.9</v>
       </c>
     </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>138</v>
       </c>
@@ -34117,7 +34118,7 @@
         <v>89487.69</v>
       </c>
     </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>138</v>
       </c>
@@ -34329,7 +34330,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>138</v>
       </c>
@@ -34544,7 +34545,7 @@
         <v>61168</v>
       </c>
     </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>138</v>
       </c>
@@ -34759,7 +34760,7 @@
         <v>1817.2</v>
       </c>
     </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>138</v>
       </c>
@@ -34974,7 +34975,7 @@
         <v>111152</v>
       </c>
     </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>138</v>
       </c>
@@ -35189,7 +35190,7 @@
         <v>145671</v>
       </c>
     </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>138</v>
       </c>
@@ -35404,7 +35405,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>138</v>
       </c>
@@ -35619,7 +35620,7 @@
         <v>3101899.31</v>
       </c>
     </row>
-    <row r="161" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>138</v>
       </c>
@@ -35834,7 +35835,7 @@
         <v>58526402</v>
       </c>
     </row>
-    <row r="162" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>138</v>
       </c>
@@ -36049,7 +36050,7 @@
         <v>212939</v>
       </c>
     </row>
-    <row r="163" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>138</v>
       </c>
@@ -36264,7 +36265,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="164" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>138</v>
       </c>
@@ -36479,7 +36480,7 @@
         <v>72889</v>
       </c>
     </row>
-    <row r="165" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>138</v>
       </c>
@@ -36694,7 +36695,7 @@
         <v>560474</v>
       </c>
     </row>
-    <row r="166" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>138</v>
       </c>
@@ -36909,7 +36910,7 @@
         <v>6407072</v>
       </c>
     </row>
-    <row r="167" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>138</v>
       </c>
@@ -37124,7 +37125,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="168" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>138</v>
       </c>
@@ -37276,7 +37277,7 @@
         <v>478.8</v>
       </c>
     </row>
-    <row r="169" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>138</v>
       </c>
@@ -37491,7 +37492,7 @@
         <v>146.58000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>138</v>
       </c>
@@ -37706,7 +37707,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="171" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>138</v>
       </c>
@@ -37852,7 +37853,7 @@
         <v>16899.5</v>
       </c>
     </row>
-    <row r="172" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>138</v>
       </c>
@@ -38067,7 +38068,7 @@
         <v>14271.07</v>
       </c>
     </row>
-    <row r="173" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>138</v>
       </c>
@@ -38282,7 +38283,7 @@
         <v>201998</v>
       </c>
     </row>
-    <row r="174" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>138</v>
       </c>
@@ -38497,7 +38498,7 @@
         <v>15356.8</v>
       </c>
     </row>
-    <row r="175" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>138</v>
       </c>
@@ -38712,7 +38713,7 @@
         <v>3102045.85</v>
       </c>
     </row>
-    <row r="176" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>138</v>
       </c>
@@ -38927,7 +38928,7 @@
         <v>9104</v>
       </c>
     </row>
-    <row r="177" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>138</v>
       </c>
@@ -39142,7 +39143,7 @@
         <v>1367.4</v>
       </c>
     </row>
-    <row r="178" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>138</v>
       </c>
@@ -39357,7 +39358,7 @@
         <v>12448.15</v>
       </c>
     </row>
-    <row r="179" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>138</v>
       </c>
@@ -39572,7 +39573,7 @@
         <v>22623</v>
       </c>
     </row>
-    <row r="180" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>138</v>
       </c>
@@ -39787,7 +39788,7 @@
         <v>24666.7</v>
       </c>
     </row>
-    <row r="181" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>138</v>
       </c>
@@ -40002,7 +40003,7 @@
         <v>558032.88</v>
       </c>
     </row>
-    <row r="182" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>138</v>
       </c>
@@ -40217,7 +40218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>138</v>
       </c>
@@ -40432,7 +40433,7 @@
         <v>880.3</v>
       </c>
     </row>
-    <row r="184" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>138</v>
       </c>
@@ -40647,7 +40648,7 @@
         <v>11.18</v>
       </c>
     </row>
-    <row r="185" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>138</v>
       </c>
@@ -40862,7 +40863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>138</v>
       </c>
@@ -40990,7 +40991,7 @@
         <v>4208.7</v>
       </c>
     </row>
-    <row r="187" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>138</v>
       </c>
@@ -41205,7 +41206,7 @@
         <v>427.6</v>
       </c>
     </row>
-    <row r="188" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>138</v>
       </c>
@@ -41420,7 +41421,7 @@
         <v>6777997</v>
       </c>
     </row>
-    <row r="189" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>138</v>
       </c>
@@ -41635,7 +41636,7 @@
         <v>3928.3</v>
       </c>
     </row>
-    <row r="190" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>138</v>
       </c>
@@ -41850,7 +41851,7 @@
         <v>26625693.829999998</v>
       </c>
     </row>
-    <row r="191" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>138</v>
       </c>
@@ -42065,7 +42066,7 @@
         <v>221858</v>
       </c>
     </row>
-    <row r="192" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>138</v>
       </c>
@@ -42280,7 +42281,7 @@
         <v>11203.3</v>
       </c>
     </row>
-    <row r="193" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>138</v>
       </c>
@@ -42495,7 +42496,7 @@
         <v>2485545.6</v>
       </c>
     </row>
-    <row r="194" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>138</v>
       </c>
@@ -42707,7 +42708,7 @@
         <v>626319</v>
       </c>
     </row>
-    <row r="195" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>138</v>
       </c>
@@ -42922,7 +42923,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="196" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>138</v>
       </c>
@@ -43137,7 +43138,7 @@
         <v>2175576.61</v>
       </c>
     </row>
-    <row r="197" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>138</v>
       </c>
@@ -43352,7 +43353,7 @@
         <v>8666993</v>
       </c>
     </row>
-    <row r="198" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>138</v>
       </c>
@@ -43567,7 +43568,7 @@
         <v>18256</v>
       </c>
     </row>
-    <row r="199" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>138</v>
       </c>
@@ -43782,7 +43783,7 @@
         <v>3781735.28</v>
       </c>
     </row>
-    <row r="200" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>138</v>
       </c>
@@ -43997,7 +43998,7 @@
         <v>2071504</v>
       </c>
     </row>
-    <row r="201" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>138</v>
       </c>
@@ -44116,7 +44117,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="202" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>138</v>
       </c>
@@ -44235,7 +44236,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="203" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>138</v>
       </c>
@@ -44354,7 +44355,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="204" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>138</v>
       </c>
@@ -44569,7 +44570,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="205" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>138</v>
       </c>
@@ -44784,7 +44785,7 @@
         <v>40825.57</v>
       </c>
     </row>
-    <row r="206" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>138</v>
       </c>
@@ -44999,7 +45000,7 @@
         <v>2277140</v>
       </c>
     </row>
-    <row r="207" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>138</v>
       </c>
@@ -45214,7 +45215,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="208" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>138</v>
       </c>
@@ -45429,7 +45430,7 @@
         <v>1730051.37</v>
       </c>
     </row>
-    <row r="209" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>138</v>
       </c>
@@ -45644,7 +45645,7 @@
         <v>20894799</v>
       </c>
     </row>
-    <row r="210" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>138</v>
       </c>
@@ -45859,7 +45860,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="211" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>138</v>
       </c>
@@ -46074,7 +46075,7 @@
         <v>4515.6400000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>138</v>
       </c>
@@ -46289,7 +46290,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="213" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>138</v>
       </c>
@@ -46504,7 +46505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>138</v>
       </c>
@@ -46719,7 +46720,7 @@
         <v>67248.789999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>138</v>
       </c>
@@ -46934,7 +46935,7 @@
         <v>3265434</v>
       </c>
     </row>
-    <row r="216" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>138</v>
       </c>
@@ -47149,7 +47150,7 @@
         <v>56566</v>
       </c>
     </row>
-    <row r="217" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>138</v>
       </c>
@@ -47364,7 +47365,7 @@
         <v>18216.330000000002</v>
       </c>
     </row>
-    <row r="218" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>138</v>
       </c>
@@ -47579,7 +47580,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="219" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>138</v>
       </c>
@@ -47794,7 +47795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>138</v>
       </c>
@@ -47916,7 +47917,7 @@
         <v>389.3</v>
       </c>
     </row>
-    <row r="221" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>138</v>
       </c>
@@ -48131,7 +48132,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="222" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>138</v>
       </c>
@@ -48346,7 +48347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>138</v>
       </c>
@@ -48480,7 +48481,7 @@
         <v>15100</v>
       </c>
     </row>
-    <row r="224" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>138</v>
       </c>
@@ -48695,7 +48696,7 @@
         <v>271.8</v>
       </c>
     </row>
-    <row r="225" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>138</v>
       </c>
@@ -48907,7 +48908,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="226" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>138</v>
       </c>
@@ -49122,7 +49123,7 @@
         <v>3290959</v>
       </c>
     </row>
-    <row r="227" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>138</v>
       </c>
@@ -49337,7 +49338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>138</v>
       </c>
@@ -49465,7 +49466,7 @@
         <v>666.7</v>
       </c>
     </row>
-    <row r="229" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>138</v>
       </c>
@@ -49680,7 +49681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>138</v>
       </c>
@@ -49895,7 +49896,7 @@
         <v>64320.37</v>
       </c>
     </row>
-    <row r="231" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>138</v>
       </c>
@@ -50110,7 +50111,7 @@
         <v>33069</v>
       </c>
     </row>
-    <row r="232" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>138</v>
       </c>
@@ -50268,7 +50269,7 @@
         <v>3081.1</v>
       </c>
     </row>
-    <row r="233" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>138</v>
       </c>
@@ -50483,7 +50484,7 @@
         <v>101887.9</v>
       </c>
     </row>
-    <row r="234" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>138</v>
       </c>
@@ -50698,7 +50699,7 @@
         <v>49040</v>
       </c>
     </row>
-    <row r="235" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>138</v>
       </c>
@@ -50913,7 +50914,7 @@
         <v>2137.6</v>
       </c>
     </row>
-    <row r="236" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>138</v>
       </c>
@@ -51128,7 +51129,7 @@
         <v>104825.51</v>
       </c>
     </row>
-    <row r="237" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>138</v>
       </c>
@@ -51340,7 +51341,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="238" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>138</v>
       </c>
@@ -51552,7 +51553,7 @@
         <v>34217</v>
       </c>
     </row>
-    <row r="239" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>138</v>
       </c>
@@ -51764,7 +51765,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="240" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>138</v>
       </c>
@@ -51976,7 +51977,7 @@
         <v>25900</v>
       </c>
     </row>
-    <row r="241" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>138</v>
       </c>
@@ -52191,7 +52192,7 @@
         <v>115137</v>
       </c>
     </row>
-    <row r="242" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>138</v>
       </c>
@@ -52406,7 +52407,7 @@
         <v>14061.8</v>
       </c>
     </row>
-    <row r="243" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>138</v>
       </c>
@@ -52621,7 +52622,7 @@
         <v>1619026.88</v>
       </c>
     </row>
-    <row r="244" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>138</v>
       </c>
@@ -52836,7 +52837,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="245" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>138</v>
       </c>
@@ -53051,7 +53052,7 @@
         <v>9636.1</v>
       </c>
     </row>
-    <row r="246" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>138</v>
       </c>
@@ -53266,7 +53267,7 @@
         <v>39409.86</v>
       </c>
     </row>
-    <row r="247" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>138</v>
       </c>
@@ -53478,7 +53479,7 @@
         <v>735.03</v>
       </c>
     </row>
-    <row r="248" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>138</v>
       </c>
@@ -53693,7 +53694,7 @@
         <v>9478</v>
       </c>
     </row>
-    <row r="249" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>138</v>
       </c>
@@ -53908,7 +53909,7 @@
         <v>3604.4</v>
       </c>
     </row>
-    <row r="250" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>138</v>
       </c>
@@ -54123,7 +54124,7 @@
         <v>34162.53</v>
       </c>
     </row>
-    <row r="251" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>138</v>
       </c>
@@ -54338,7 +54339,7 @@
         <v>49067</v>
       </c>
     </row>
-    <row r="252" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>138</v>
       </c>
@@ -54553,7 +54554,7 @@
         <v>30757.200000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>138</v>
       </c>
@@ -54768,7 +54769,7 @@
         <v>1509160.75</v>
       </c>
     </row>
-    <row r="254" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>138</v>
       </c>
@@ -54983,7 +54984,7 @@
         <v>8538</v>
       </c>
     </row>
-    <row r="255" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>138</v>
       </c>
@@ -55111,7 +55112,7 @@
         <v>11587.3</v>
       </c>
     </row>
-    <row r="256" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>138</v>
       </c>
@@ -55326,7 +55327,7 @@
         <v>98936.74</v>
       </c>
     </row>
-    <row r="257" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>138</v>
       </c>
@@ -55541,7 +55542,7 @@
         <v>335541</v>
       </c>
     </row>
-    <row r="258" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>138</v>
       </c>
@@ -55756,7 +55757,7 @@
         <v>14454.5</v>
       </c>
     </row>
-    <row r="259" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>138</v>
       </c>
@@ -55971,7 +55972,7 @@
         <v>4850083.04</v>
       </c>
     </row>
-    <row r="260" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>138</v>
       </c>
@@ -56186,7 +56187,7 @@
         <v>10476</v>
       </c>
     </row>
-    <row r="261" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>138</v>
       </c>
@@ -56401,7 +56402,7 @@
         <v>10041.700000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>138</v>
       </c>
@@ -56616,7 +56617,7 @@
         <v>105197.01</v>
       </c>
     </row>
-    <row r="263" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>138</v>
       </c>
@@ -56831,7 +56832,7 @@
         <v>9608</v>
       </c>
     </row>
-    <row r="264" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>138</v>
       </c>
@@ -56959,7 +56960,7 @@
         <v>23169.4</v>
       </c>
     </row>
-    <row r="265" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>138</v>
       </c>
@@ -57174,7 +57175,7 @@
         <v>222623.05</v>
       </c>
     </row>
-    <row r="266" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>138</v>
       </c>
@@ -57389,7 +57390,7 @@
         <v>84371</v>
       </c>
     </row>
-    <row r="267" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>138</v>
       </c>
@@ -57535,7 +57536,7 @@
         <v>4279.7</v>
       </c>
     </row>
-    <row r="268" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>138</v>
       </c>
@@ -57750,7 +57751,7 @@
         <v>361086.68</v>
       </c>
     </row>
-    <row r="269" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>138</v>
       </c>
@@ -57965,7 +57966,7 @@
         <v>76706</v>
       </c>
     </row>
-    <row r="270" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>138</v>
       </c>
@@ -58180,7 +58181,7 @@
         <v>6802</v>
       </c>
     </row>
-    <row r="271" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>138</v>
       </c>
@@ -58395,7 +58396,7 @@
         <v>521759.02</v>
       </c>
     </row>
-    <row r="272" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>138</v>
       </c>
@@ -58610,7 +58611,7 @@
         <v>65280</v>
       </c>
     </row>
-    <row r="273" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>138</v>
       </c>
@@ -58825,7 +58826,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="274" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>138</v>
       </c>
@@ -59040,7 +59041,7 @@
         <v>124096.46</v>
       </c>
     </row>
-    <row r="275" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>138</v>
       </c>
@@ -59255,7 +59256,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="276" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>138</v>
       </c>
@@ -59377,7 +59378,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="277" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>138</v>
       </c>
@@ -59592,7 +59593,7 @@
         <v>606.38</v>
       </c>
     </row>
-    <row r="278" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>138</v>
       </c>
@@ -59807,7 +59808,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="279" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>138</v>
       </c>
@@ -59965,7 +59966,7 @@
         <v>7040.3</v>
       </c>
     </row>
-    <row r="280" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>138</v>
       </c>
@@ -60180,7 +60181,7 @@
         <v>7226.44</v>
       </c>
     </row>
-    <row r="281" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>138</v>
       </c>
@@ -60395,7 +60396,7 @@
         <v>47952</v>
       </c>
     </row>
-    <row r="282" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>138</v>
       </c>
@@ -60610,7 +60611,7 @@
         <v>9833.9</v>
       </c>
     </row>
-    <row r="283" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>138</v>
       </c>
@@ -60825,7 +60826,7 @@
         <v>471551.17</v>
       </c>
     </row>
-    <row r="284" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>138</v>
       </c>
@@ -61040,7 +61041,7 @@
         <v>97537</v>
       </c>
     </row>
-    <row r="285" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>138</v>
       </c>
@@ -61255,7 +61256,7 @@
         <v>8529.9</v>
       </c>
     </row>
-    <row r="286" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>138</v>
       </c>
@@ -61470,7 +61471,7 @@
         <v>831980.19</v>
       </c>
     </row>
-    <row r="287" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>138</v>
       </c>
@@ -61682,7 +61683,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="288" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>138</v>
       </c>
@@ -61894,7 +61895,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="289" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>138</v>
       </c>
@@ -62109,7 +62110,7 @@
         <v>19613</v>
       </c>
     </row>
-    <row r="290" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>138</v>
       </c>
@@ -62324,7 +62325,7 @@
         <v>58080.7</v>
       </c>
     </row>
-    <row r="291" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>138</v>
       </c>
@@ -62539,7 +62540,7 @@
         <v>1139121.1100000001</v>
       </c>
     </row>
-    <row r="292" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>138</v>
       </c>
@@ -62754,7 +62755,7 @@
         <v>32606</v>
       </c>
     </row>
-    <row r="293" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>138</v>
       </c>
@@ -62969,7 +62970,7 @@
         <v>7300.7</v>
       </c>
     </row>
-    <row r="294" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>138</v>
       </c>
@@ -63184,7 +63185,7 @@
         <v>238042.37</v>
       </c>
     </row>
-    <row r="295" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>138</v>
       </c>
@@ -63399,7 +63400,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="296" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>138</v>
       </c>
@@ -63614,7 +63615,7 @@
         <v>7383.7</v>
       </c>
     </row>
-    <row r="297" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>138</v>
       </c>
@@ -63829,7 +63830,7 @@
         <v>26379.69</v>
       </c>
     </row>
-    <row r="298" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>138</v>
       </c>
@@ -64044,7 +64045,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="299" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>138</v>
       </c>
@@ -64259,7 +64260,7 @@
         <v>1570.3</v>
       </c>
     </row>
-    <row r="300" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>138</v>
       </c>
@@ -64474,7 +64475,7 @@
         <v>2432.5</v>
       </c>
     </row>
-    <row r="301" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>138</v>
       </c>
@@ -64689,7 +64690,7 @@
         <v>12998</v>
       </c>
     </row>
-    <row r="302" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>138</v>
       </c>
@@ -64904,7 +64905,7 @@
         <v>5657.6</v>
       </c>
     </row>
-    <row r="303" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>138</v>
       </c>
@@ -65119,7 +65120,7 @@
         <v>73539.44</v>
       </c>
     </row>
-    <row r="304" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>138</v>
       </c>
@@ -65334,7 +65335,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="305" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>138</v>
       </c>
@@ -65549,7 +65550,7 @@
         <v>3007.5</v>
       </c>
     </row>
-    <row r="306" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>138</v>
       </c>
@@ -65764,7 +65765,7 @@
         <v>10814.75</v>
       </c>
     </row>
-    <row r="307" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>138</v>
       </c>
@@ -65892,7 +65893,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="308" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>138</v>
       </c>
@@ -65948,7 +65949,7 @@
         <v>10448.6</v>
       </c>
     </row>
-    <row r="309" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>138</v>
       </c>
@@ -66076,7 +66077,7 @@
         <v>1173.3800000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>138</v>
       </c>
@@ -66291,7 +66292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>138</v>
       </c>
@@ -66446,7 +66447,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="312" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>138</v>
       </c>
@@ -66661,7 +66662,7 @@
         <v>233.8</v>
       </c>
     </row>
-    <row r="313" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>138</v>
       </c>
@@ -66873,7 +66874,7 @@
         <v>114740.71</v>
       </c>
     </row>
-    <row r="314" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>138</v>
       </c>
@@ -67088,7 +67089,7 @@
         <v>25626</v>
       </c>
     </row>
-    <row r="315" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>138</v>
       </c>
@@ -67303,7 +67304,7 @@
         <v>48685.3</v>
       </c>
     </row>
-    <row r="316" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>138</v>
       </c>
@@ -67518,7 +67519,7 @@
         <v>1247592.74</v>
       </c>
     </row>
-    <row r="317" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>138</v>
       </c>
@@ -67733,7 +67734,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="318" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>138</v>
       </c>
@@ -67867,7 +67868,7 @@
         <v>497.2</v>
       </c>
     </row>
-    <row r="319" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>138</v>
       </c>
@@ -68082,7 +68083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="320" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>138</v>
       </c>
@@ -68297,7 +68298,7 @@
         <v>15046</v>
       </c>
     </row>
-    <row r="321" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>138</v>
       </c>
@@ -68512,7 +68513,7 @@
         <v>5859.7</v>
       </c>
     </row>
-    <row r="322" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>138</v>
       </c>
@@ -68727,7 +68728,7 @@
         <v>88162.96</v>
       </c>
     </row>
-    <row r="323" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>138</v>
       </c>
@@ -68942,7 +68943,7 @@
         <v>20412</v>
       </c>
     </row>
-    <row r="324" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>138</v>
       </c>
@@ -69157,7 +69158,7 @@
         <v>23962</v>
       </c>
     </row>
-    <row r="325" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>138</v>
       </c>
@@ -69372,7 +69373,7 @@
         <v>489100.97</v>
       </c>
     </row>
-    <row r="326" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>138</v>
       </c>
@@ -69587,7 +69588,7 @@
         <v>59895</v>
       </c>
     </row>
-    <row r="327" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>138</v>
       </c>
@@ -69802,7 +69803,7 @@
         <v>31223.200000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>138</v>
       </c>
@@ -70017,7 +70018,7 @@
         <v>1870128.98</v>
       </c>
     </row>
-    <row r="329" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>138</v>
       </c>
@@ -70232,7 +70233,7 @@
         <v>35147</v>
       </c>
     </row>
-    <row r="330" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>138</v>
       </c>
@@ -70447,7 +70448,7 @@
         <v>20747.400000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>138</v>
       </c>
@@ -70662,7 +70663,7 @@
         <v>729200.93</v>
       </c>
     </row>
-    <row r="332" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>138</v>
       </c>
@@ -70877,7 +70878,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="333" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>138</v>
       </c>
@@ -71092,7 +71093,7 @@
         <v>8888.4</v>
       </c>
     </row>
-    <row r="334" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>138</v>
       </c>
@@ -71307,7 +71308,7 @@
         <v>5734.79</v>
       </c>
     </row>
-    <row r="335" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>138</v>
       </c>
@@ -71522,7 +71523,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="336" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>138</v>
       </c>
@@ -71737,7 +71738,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="337" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>138</v>
       </c>
@@ -71952,7 +71953,7 @@
         <v>666.7</v>
       </c>
     </row>
-    <row r="338" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>138</v>
       </c>
@@ -72167,7 +72168,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="339" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>138</v>
       </c>
@@ -72379,7 +72380,7 @@
         <v>537000</v>
       </c>
     </row>
-    <row r="340" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>138</v>
       </c>
@@ -72594,7 +72595,7 @@
         <v>9268</v>
       </c>
     </row>
-    <row r="341" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>138</v>
       </c>
@@ -72734,7 +72735,7 @@
         <v>18745.400000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>138</v>
       </c>
@@ -72949,7 +72950,7 @@
         <v>173741.71</v>
       </c>
     </row>
-    <row r="343" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>138</v>
       </c>
@@ -73161,7 +73162,7 @@
         <v>6240308</v>
       </c>
     </row>
-    <row r="344" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>138</v>
       </c>
@@ -73376,7 +73377,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="345" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>138</v>
       </c>
@@ -73591,7 +73592,7 @@
         <v>269932.65000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>138</v>
       </c>
@@ -73806,7 +73807,7 @@
         <v>8666993</v>
       </c>
     </row>
-    <row r="347" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>138</v>
       </c>
@@ -74021,7 +74022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>138</v>
       </c>
@@ -74236,7 +74237,7 @@
         <v>8165.11</v>
       </c>
     </row>
-    <row r="349" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>138</v>
       </c>
@@ -74451,7 +74452,7 @@
         <v>2277140</v>
       </c>
     </row>
-    <row r="350" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>138</v>
       </c>
@@ -74666,7 +74667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>138</v>
       </c>
@@ -74881,7 +74882,7 @@
         <v>11656.46</v>
       </c>
     </row>
-    <row r="352" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>138</v>
       </c>
@@ -75096,7 +75097,7 @@
         <v>3265434</v>
       </c>
     </row>
-    <row r="353" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>138</v>
       </c>
@@ -75311,7 +75312,7 @@
         <v>50395</v>
       </c>
     </row>
-    <row r="354" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>138</v>
       </c>
@@ -75526,7 +75527,7 @@
         <v>13497999</v>
       </c>
     </row>
-    <row r="355" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>138</v>
       </c>
@@ -75741,7 +75742,7 @@
         <v>2678454</v>
       </c>
     </row>
-    <row r="356" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>138</v>
       </c>
@@ -75956,7 +75957,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="357" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>138</v>
       </c>
@@ -76171,7 +76172,7 @@
         <v>173673</v>
       </c>
     </row>
-    <row r="358" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>138</v>
       </c>
@@ -76386,7 +76387,7 @@
         <v>766386</v>
       </c>
     </row>
-    <row r="359" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>138</v>
       </c>
@@ -76511,7 +76512,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="360" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>138</v>
       </c>
@@ -76636,7 +76637,7 @@
         <v>56756.45</v>
       </c>
     </row>
-    <row r="361" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>138</v>
       </c>
@@ -76761,7 +76762,7 @@
         <v>1494462</v>
       </c>
     </row>
-    <row r="362" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>138</v>
       </c>
@@ -76976,7 +76977,7 @@
         <v>37695</v>
       </c>
     </row>
-    <row r="363" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>138</v>
       </c>
@@ -77191,7 +77192,7 @@
         <v>6552.4</v>
       </c>
     </row>
-    <row r="364" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>138</v>
       </c>
@@ -77406,7 +77407,7 @@
         <v>246988.64</v>
       </c>
     </row>
-    <row r="365" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>138</v>
       </c>
@@ -77621,7 +77622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>138</v>
       </c>
@@ -77758,7 +77759,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="367" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>138</v>
       </c>
@@ -77973,7 +77974,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="368" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>138</v>
       </c>
@@ -78188,7 +78189,7 @@
         <v>35038</v>
       </c>
     </row>
-    <row r="369" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>138</v>
       </c>
@@ -78403,7 +78404,7 @@
         <v>1977.8</v>
       </c>
     </row>
-    <row r="370" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>138</v>
       </c>
@@ -78618,7 +78619,7 @@
         <v>69299.179999999993</v>
       </c>
     </row>
-    <row r="371" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>138</v>
       </c>
@@ -78830,7 +78831,7 @@
         <v>10162.56</v>
       </c>
     </row>
-    <row r="372" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>138</v>
       </c>
@@ -79045,7 +79046,7 @@
         <v>199287</v>
       </c>
     </row>
-    <row r="373" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>138</v>
       </c>
@@ -79260,7 +79261,7 @@
         <v>4375.3999999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>138</v>
       </c>
@@ -79475,7 +79476,7 @@
         <v>871954.55</v>
       </c>
     </row>
-    <row r="375" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>138</v>
       </c>
@@ -79690,7 +79691,7 @@
         <v>81368</v>
       </c>
     </row>
-    <row r="376" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>138</v>
       </c>
@@ -79905,7 +79906,7 @@
         <v>692.1</v>
       </c>
     </row>
-    <row r="377" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>138</v>
       </c>
@@ -80120,7 +80121,7 @@
         <v>56313.56</v>
       </c>
     </row>
-    <row r="378" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>138</v>
       </c>
@@ -80335,7 +80336,7 @@
         <v>8805415</v>
       </c>
     </row>
-    <row r="379" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>138</v>
       </c>
@@ -80550,7 +80551,7 @@
         <v>2391.0700000000002</v>
       </c>
     </row>
-    <row r="380" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>138</v>
       </c>
@@ -80765,7 +80766,7 @@
         <v>3265434</v>
       </c>
     </row>
-    <row r="381" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>138</v>
       </c>
@@ -80980,7 +80981,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="382" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>138</v>
       </c>
@@ -81195,7 +81196,7 @@
         <v>9410</v>
       </c>
     </row>
-    <row r="383" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>138</v>
       </c>
@@ -81410,7 +81411,7 @@
         <v>1118.4000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>138</v>
       </c>
@@ -81625,7 +81626,7 @@
         <v>10524.36</v>
       </c>
     </row>
-    <row r="385" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>138</v>
       </c>
@@ -81837,7 +81838,7 @@
         <v>6221.89</v>
       </c>
     </row>
-    <row r="386" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>138</v>
       </c>
@@ -82049,7 +82050,7 @@
         <v>487776</v>
       </c>
     </row>
-    <row r="387" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>138</v>
       </c>
@@ -82264,7 +82265,7 @@
         <v>1332929</v>
       </c>
     </row>
-    <row r="388" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>138</v>
       </c>
@@ -82479,7 +82480,7 @@
         <v>3566.7</v>
       </c>
     </row>
-    <row r="389" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>138</v>
       </c>
@@ -82694,7 +82695,7 @@
         <v>4754169.0999999996</v>
       </c>
     </row>
-    <row r="390" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>138</v>
       </c>
@@ -82906,7 +82907,7 @@
         <v>956799</v>
       </c>
     </row>
-    <row r="391" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>138</v>
       </c>
@@ -83121,7 +83122,7 @@
         <v>113306</v>
       </c>
     </row>
-    <row r="392" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>138</v>
       </c>
@@ -83336,7 +83337,7 @@
         <v>2130.3000000000002</v>
       </c>
     </row>
-    <row r="393" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>138</v>
       </c>
@@ -83551,7 +83552,7 @@
         <v>241370.86</v>
       </c>
     </row>
-    <row r="394" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>138</v>
       </c>
@@ -83766,7 +83767,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="395" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>138</v>
       </c>
@@ -83924,7 +83925,7 @@
         <v>17241.3</v>
       </c>
     </row>
-    <row r="396" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>138</v>
       </c>
@@ -84139,7 +84140,7 @@
         <v>50654.879999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>138</v>
       </c>
@@ -84354,7 +84355,7 @@
         <v>12761</v>
       </c>
     </row>
-    <row r="398" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>138</v>
       </c>
@@ -84569,7 +84570,7 @@
         <v>44530.5</v>
       </c>
     </row>
-    <row r="399" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>138</v>
       </c>
@@ -84784,7 +84785,7 @@
         <v>568271.93000000005</v>
       </c>
     </row>
-    <row r="400" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <v>138</v>
       </c>
@@ -84999,7 +85000,7 @@
         <v>12729</v>
       </c>
     </row>
-    <row r="401" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <v>138</v>
       </c>
@@ -85157,7 +85158,7 @@
         <v>9821.4</v>
       </c>
     </row>
-    <row r="402" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <v>138</v>
       </c>
@@ -85372,7 +85373,7 @@
         <v>125019.83</v>
       </c>
     </row>
-    <row r="403" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <v>138</v>
       </c>
@@ -85587,7 +85588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="404" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <v>138</v>
       </c>
@@ -85718,7 +85719,7 @@
         <v>12884.7</v>
       </c>
     </row>
-    <row r="405" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <v>138</v>
       </c>
@@ -85933,7 +85934,7 @@
         <v>877.31</v>
       </c>
     </row>
-    <row r="406" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <v>138</v>
       </c>
@@ -86148,7 +86149,7 @@
         <v>808790</v>
       </c>
     </row>
-    <row r="407" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <v>138</v>
       </c>
@@ -86363,7 +86364,7 @@
         <v>68348.399999999994</v>
       </c>
     </row>
-    <row r="408" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <v>138</v>
       </c>
@@ -86578,7 +86579,7 @@
         <v>55279458.979999997</v>
       </c>
     </row>
-    <row r="409" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <v>138</v>
       </c>
@@ -86793,7 +86794,7 @@
         <v>6074</v>
       </c>
     </row>
-    <row r="410" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <v>138</v>
       </c>
@@ -86978,7 +86979,7 @@
         <v>1466.6</v>
       </c>
     </row>
-    <row r="411" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <v>138</v>
       </c>
@@ -87193,7 +87194,7 @@
         <v>8908.7099999999991</v>
       </c>
     </row>
-    <row r="412" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <v>138</v>
       </c>
@@ -87405,7 +87406,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="413" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <v>138</v>
       </c>
@@ -87620,7 +87621,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="414" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
         <v>138</v>
       </c>
@@ -87835,7 +87836,7 @@
         <v>19811.599999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
         <v>138</v>
       </c>
@@ -88050,7 +88051,7 @@
         <v>81094.92</v>
       </c>
     </row>
-    <row r="416" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
         <v>138</v>
       </c>
@@ -88265,7 +88266,7 @@
         <v>19224000</v>
       </c>
     </row>
-    <row r="417" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
         <v>138</v>
       </c>
@@ -88477,7 +88478,7 @@
         <v>170400</v>
       </c>
     </row>
-    <row r="418" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
         <v>138</v>
       </c>
@@ -88692,7 +88693,7 @@
         <v>36270</v>
       </c>
     </row>
-    <row r="419" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
         <v>138</v>
       </c>
@@ -88907,7 +88908,7 @@
         <v>14201.4</v>
       </c>
     </row>
-    <row r="420" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
         <v>138</v>
       </c>
@@ -89122,7 +89123,7 @@
         <v>515083.98</v>
       </c>
     </row>
-    <row r="421" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
         <v>138</v>
       </c>
@@ -89337,7 +89338,7 @@
         <v>90696</v>
       </c>
     </row>
-    <row r="422" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
         <v>138</v>
       </c>
@@ -89552,7 +89553,7 @@
         <v>46395.6</v>
       </c>
     </row>
-    <row r="423" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
         <v>138</v>
       </c>
@@ -89767,7 +89768,7 @@
         <v>4207889.22</v>
       </c>
     </row>
-    <row r="424" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
         <v>138</v>
       </c>
@@ -89982,7 +89983,7 @@
         <v>10697</v>
       </c>
     </row>
-    <row r="425" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
         <v>138</v>
       </c>
@@ -90140,7 +90141,7 @@
         <v>2933.8</v>
       </c>
     </row>
-    <row r="426" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
         <v>138</v>
       </c>
@@ -90355,7 +90356,7 @@
         <v>31381.5</v>
       </c>
     </row>
-    <row r="427" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
         <v>138</v>
       </c>
@@ -90570,7 +90571,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="428" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
         <v>138</v>
       </c>
@@ -90785,7 +90786,7 @@
         <v>6636</v>
       </c>
     </row>
-    <row r="429" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
         <v>138</v>
       </c>
@@ -91000,7 +91001,7 @@
         <v>2488.1</v>
       </c>
     </row>
-    <row r="430" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
         <v>138</v>
       </c>
@@ -91215,7 +91216,7 @@
         <v>16511.349999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
         <v>138</v>
       </c>
@@ -91430,7 +91431,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="432" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
         <v>138</v>
       </c>
@@ -91645,7 +91646,7 @@
         <v>638.70000000000005</v>
       </c>
     </row>
-    <row r="433" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
         <v>138</v>
       </c>
@@ -91860,7 +91861,7 @@
         <v>710.27</v>
       </c>
     </row>
-    <row r="434" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
         <v>138</v>
       </c>
@@ -92075,7 +92076,7 @@
         <v>8961</v>
       </c>
     </row>
-    <row r="435" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
         <v>138</v>
       </c>
@@ -92230,7 +92231,7 @@
         <v>12343.8</v>
       </c>
     </row>
-    <row r="436" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
         <v>138</v>
       </c>
@@ -92445,7 +92446,7 @@
         <v>110607.67999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
         <v>138</v>
       </c>
@@ -92660,7 +92661,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="438" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
         <v>138</v>
       </c>
@@ -92875,7 +92876,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="439" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
         <v>138</v>
       </c>
@@ -93090,7 +93091,7 @@
         <v>176892.92</v>
       </c>
     </row>
-    <row r="440" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
         <v>138</v>
       </c>
@@ -93305,7 +93306,7 @@
         <v>36795</v>
       </c>
     </row>
-    <row r="441" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
         <v>138</v>
       </c>
@@ -93520,7 +93521,7 @@
         <v>31186.1</v>
       </c>
     </row>
-    <row r="442" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
         <v>138</v>
       </c>
@@ -93735,7 +93736,7 @@
         <v>1147497.6200000001</v>
       </c>
     </row>
-    <row r="443" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
         <v>138</v>
       </c>
@@ -93950,7 +93951,7 @@
         <v>587246</v>
       </c>
     </row>
-    <row r="444" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
         <v>138</v>
       </c>
@@ -94165,7 +94166,7 @@
         <v>6093.3</v>
       </c>
     </row>
-    <row r="445" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
         <v>138</v>
       </c>
@@ -94380,7 +94381,7 @@
         <v>3578244.4</v>
       </c>
     </row>
-    <row r="446" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
         <v>138</v>
       </c>
@@ -94592,7 +94593,7 @@
         <v>157685.6</v>
       </c>
     </row>
-    <row r="447" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
         <v>138</v>
       </c>
@@ -94804,7 +94805,7 @@
         <v>64877.8</v>
       </c>
     </row>
-    <row r="448" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
         <v>138</v>
       </c>
@@ -95016,7 +95017,7 @@
         <v>145482.04999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
         <v>138</v>
       </c>
@@ -95228,7 +95229,7 @@
         <v>43268</v>
       </c>
     </row>
-    <row r="450" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
         <v>138</v>
       </c>
@@ -95443,7 +95444,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="451" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
         <v>138</v>
       </c>
@@ -95565,7 +95566,7 @@
         <v>69150.100000000006</v>
       </c>
     </row>
-    <row r="452" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
         <v>138</v>
       </c>
@@ -95780,7 +95781,7 @@
         <v>47526.84</v>
       </c>
     </row>
-    <row r="453" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
         <v>138</v>
       </c>
@@ -95995,7 +95996,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="454" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
         <v>138</v>
       </c>
@@ -96210,7 +96211,7 @@
         <v>2175576.61</v>
       </c>
     </row>
-    <row r="455" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
         <v>138</v>
       </c>
@@ -96425,7 +96426,7 @@
         <v>8666993</v>
       </c>
     </row>
-    <row r="456" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
         <v>138</v>
       </c>
@@ -96637,7 +96638,7 @@
         <v>24541</v>
       </c>
     </row>
-    <row r="457" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
         <v>138</v>
       </c>
@@ -96852,7 +96853,7 @@
         <v>36338366</v>
       </c>
     </row>
-    <row r="458" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
         <v>138</v>
       </c>
@@ -97067,7 +97068,7 @@
         <v>9122008</v>
       </c>
     </row>
-    <row r="459" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
         <v>138</v>
       </c>
@@ -97282,7 +97283,7 @@
         <v>3981.3</v>
       </c>
     </row>
-    <row r="460" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
         <v>138</v>
       </c>
@@ -97497,7 +97498,7 @@
         <v>36317244.149999999</v>
       </c>
     </row>
-    <row r="461" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
         <v>138</v>
       </c>
@@ -97709,7 +97710,7 @@
         <v>181558</v>
       </c>
     </row>
-    <row r="462" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
         <v>138</v>
       </c>
@@ -97924,7 +97925,7 @@
         <v>678592</v>
       </c>
     </row>
-    <row r="463" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
         <v>138</v>
       </c>
@@ -98139,7 +98140,7 @@
         <v>13730.5</v>
       </c>
     </row>
-    <row r="464" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
         <v>138</v>
       </c>
@@ -98354,7 +98355,7 @@
         <v>9317400.5199999996</v>
       </c>
     </row>
-    <row r="465" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
         <v>138</v>
       </c>
@@ -98569,7 +98570,7 @@
         <v>145671</v>
       </c>
     </row>
-    <row r="466" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
         <v>138</v>
       </c>
@@ -98784,7 +98785,7 @@
         <v>3101899.31</v>
       </c>
     </row>
-    <row r="467" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
         <v>138</v>
       </c>
@@ -98999,7 +99000,7 @@
         <v>212939</v>
       </c>
     </row>
-    <row r="468" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
         <v>138</v>
       </c>
@@ -99211,7 +99212,7 @@
         <v>210360</v>
       </c>
     </row>
-    <row r="469" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
         <v>138</v>
       </c>
@@ -99426,7 +99427,7 @@
         <v>222298</v>
       </c>
     </row>
-    <row r="470" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
         <v>138</v>
       </c>
@@ -99641,7 +99642,7 @@
         <v>1448.3</v>
       </c>
     </row>
-    <row r="471" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
         <v>138</v>
       </c>
@@ -99856,7 +99857,7 @@
         <v>321960.33</v>
       </c>
     </row>
-    <row r="472" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
         <v>138</v>
       </c>
@@ -100071,7 +100072,7 @@
         <v>1626115</v>
       </c>
     </row>
-    <row r="473" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
         <v>138</v>
       </c>
@@ -100286,7 +100287,7 @@
         <v>15211.3</v>
       </c>
     </row>
-    <row r="474" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
         <v>138</v>
       </c>
@@ -100501,7 +100502,7 @@
         <v>24735285.960000001</v>
       </c>
     </row>
-    <row r="475" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
         <v>138</v>
       </c>
@@ -100716,7 +100717,7 @@
         <v>18315</v>
       </c>
     </row>
-    <row r="476" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
         <v>138</v>
       </c>
@@ -100931,7 +100932,7 @@
         <v>3799951.61</v>
       </c>
     </row>
-    <row r="477" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
         <v>138</v>
       </c>
@@ -101146,7 +101147,7 @@
         <v>2074724</v>
       </c>
     </row>
-    <row r="478" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
         <v>138</v>
       </c>
@@ -101361,7 +101362,7 @@
         <v>7891058.5999999996</v>
       </c>
     </row>
-    <row r="479" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
         <v>138</v>
       </c>
@@ -101576,7 +101577,7 @@
         <v>27794</v>
       </c>
     </row>
-    <row r="480" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
         <v>138</v>
       </c>
@@ -101791,7 +101792,7 @@
         <v>13728428.449999999</v>
       </c>
     </row>
-    <row r="481" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
         <v>138</v>
       </c>
@@ -102006,7 +102007,7 @@
         <v>4939302</v>
       </c>
     </row>
-    <row r="482" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
         <v>138</v>
       </c>
@@ -102221,7 +102222,7 @@
         <v>739217</v>
       </c>
     </row>
-    <row r="483" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
         <v>138</v>
       </c>
@@ -102436,7 +102437,7 @@
         <v>988.8</v>
       </c>
     </row>
-    <row r="484" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
         <v>138</v>
       </c>
@@ -102651,7 +102652,7 @@
         <v>730959</v>
       </c>
     </row>
-    <row r="485" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
         <v>138</v>
       </c>
@@ -102866,7 +102867,7 @@
         <v>749728</v>
       </c>
     </row>
-    <row r="486" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
         <v>138</v>
       </c>
@@ -103081,7 +103082,7 @@
         <v>965.8</v>
       </c>
     </row>
-    <row r="487" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
         <v>138</v>
       </c>
@@ -103296,7 +103297,7 @@
         <v>724075.01</v>
       </c>
     </row>
-    <row r="488" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
         <v>138</v>
       </c>
@@ -103511,7 +103512,7 @@
         <v>614975</v>
       </c>
     </row>
-    <row r="489" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
         <v>138</v>
       </c>
@@ -103726,7 +103727,7 @@
         <v>1608929</v>
       </c>
     </row>
-    <row r="490" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
         <v>138</v>
       </c>
@@ -103941,7 +103942,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="491" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
         <v>138</v>
       </c>
@@ -104156,7 +104157,7 @@
         <v>1357867.63</v>
       </c>
     </row>
-    <row r="492" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
         <v>138</v>
       </c>
@@ -104371,7 +104372,7 @@
         <v>75151</v>
       </c>
     </row>
-    <row r="493" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
         <v>138</v>
       </c>
@@ -104586,7 +104587,7 @@
         <v>30103.7</v>
       </c>
     </row>
-    <row r="494" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
         <v>138</v>
       </c>
@@ -104801,7 +104802,7 @@
         <v>2262313.7599999998</v>
       </c>
     </row>
-    <row r="495" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
         <v>138</v>
       </c>
@@ -105016,7 +105017,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="496" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
         <v>138</v>
       </c>
@@ -105231,7 +105232,7 @@
         <v>108074.36</v>
       </c>
     </row>
-    <row r="497" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
         <v>138</v>
       </c>
@@ -105446,7 +105447,7 @@
         <v>5542574</v>
       </c>
     </row>
-    <row r="498" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
         <v>138</v>
       </c>
@@ -105661,7 +105662,7 @@
         <v>17622615</v>
       </c>
     </row>
-    <row r="499" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
         <v>138</v>
       </c>
@@ -105873,7 +105874,7 @@
         <v>10528</v>
       </c>
     </row>
-    <row r="500" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
         <v>138</v>
       </c>
@@ -106088,7 +106089,7 @@
         <v>808858</v>
       </c>
     </row>
-    <row r="501" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
         <v>138</v>
       </c>
@@ -106303,7 +106304,7 @@
         <v>68343.7</v>
       </c>
     </row>
-    <row r="502" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
         <v>138</v>
       </c>
@@ -106518,7 +106519,7 @@
         <v>55280336.289999999</v>
       </c>
     </row>
-    <row r="503" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
         <v>138</v>
       </c>
@@ -106733,7 +106734,7 @@
         <v>183978</v>
       </c>
     </row>
-    <row r="504" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
         <v>138</v>
       </c>
@@ -106948,7 +106949,7 @@
         <v>1656.4</v>
       </c>
     </row>
-    <row r="505" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
         <v>138</v>
       </c>
@@ -107163,7 +107164,7 @@
         <v>304747.78999999998</v>
       </c>
     </row>
-    <row r="506" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
         <v>138</v>
       </c>
@@ -107378,7 +107379,7 @@
         <v>712252</v>
       </c>
     </row>
-    <row r="507" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
         <v>138</v>
       </c>
@@ -107593,7 +107594,7 @@
         <v>21873.9</v>
       </c>
     </row>
-    <row r="508" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
         <v>138</v>
       </c>
